--- a/src/test/java/data/UserData.xlsx
+++ b/src/test/java/data/UserData.xlsx
@@ -13,22 +13,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Mo21</t>
+    <t>Mo218</t>
   </si>
   <si>
-    <t>saed11</t>
+    <t>saed118</t>
   </si>
   <si>
-    <t>Mohamed21</t>
+    <t>Mohamed218</t>
   </si>
   <si>
-    <t>Said11</t>
+    <t>Said118</t>
   </si>
   <si>
-    <t>Salah21</t>
+    <t>Salah218</t>
   </si>
   <si>
-    <t>Salem11</t>
+    <t>Salem118</t>
   </si>
 </sst>
 </file>
@@ -313,10 +313,10 @@
       </c>
       <c r="C1" s="2" t="str">
         <f t="shared" ref="C1:C3" si="1">CONCATENATE(A1,B1,D1,"@teest.com")</f>
-        <v>Mo21saed111234567811@teest.com</v>
+        <v>Mo218saed11812345678118@teest.com</v>
       </c>
       <c r="D1" s="1">
-        <v>1.234567811E9</v>
+        <v>1.2345678118E10</v>
       </c>
     </row>
     <row r="2">
@@ -328,10 +328,10 @@
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Mohamed21Said1112345611@teest.com</v>
+        <v>Mohamed218Said118123456118@teest.com</v>
       </c>
       <c r="D2" s="1">
-        <v>1.2345611E7</v>
+        <v>1.23456118E8</v>
       </c>
     </row>
     <row r="3">
@@ -343,10 +343,10 @@
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Salah21Salem11123456789011@teest.com</v>
+        <v>Salah218Salem1181234567890118@teest.com</v>
       </c>
       <c r="D3" s="1">
-        <v>1.23456789011E11</v>
+        <v>1.234567890118E12</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
